--- a/UserStoriesExcel.xlsx
+++ b/UserStoriesExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/User Stories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ProjectWatch/ProjectWatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +455,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>

--- a/UserStoriesExcel.xlsx
+++ b/UserStoriesExcel.xlsx
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,11 +461,17 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -491,6 +497,9 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -500,6 +509,9 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
